--- a/viralproduction_R.xlsx
+++ b/viralproduction_R.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/mohammedhisham_shaikh_ugent_be/Documents/Projects/FCM_R/ViralProduction_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104892391D4E525BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C29DC4-5F76-4617-9C17-B72E276A00BC}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC104892391D4E525BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1580055-76D0-477F-8D9D-F94E76DDD8EC}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Timepoints</t>
   </si>
@@ -65,6 +66,18 @@
   </si>
   <si>
     <t>Diff_c</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>Average Slope</t>
   </si>
 </sst>
 </file>
@@ -108,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +142,3594 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP_a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9335634.8936170228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8995398.6419652104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8435165.4803435896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10085941.036339829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9399836.0317572597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12616004.57423345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C36B-4BA8-A9AE-6445D306AA38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPC_a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7517112.7097654594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7891185.2044349685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7663466.6543283593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8082571.1319403006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8368626.5690405127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8421846.1852452029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C36B-4BA8-A9AE-6445D306AA38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1818522.1838515634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1104213.4375302419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-771698.82601523027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2003369.9043995282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1031209.4627167471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4194158.3889882471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C36B-4BA8-A9AE-6445D306AA38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468458447"/>
+        <c:axId val="468458863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468458447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468458863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP_b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8827805.2133005392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8917160.0863690022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8315424.8968332177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9804652.1937093474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10726467.90580868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9845381.1554933861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5E9-4D20-8E95-0C988724602E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPC_b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7944916.547718551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7504831.2598720687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9201718.2534754798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9008797.1447334755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8754980.5136034116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8495023.1575266533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5E9-4D20-8E95-0C988724602E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-882888.66558198817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1412328.8264969336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>886293.35664226208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-795855.04897587188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1971487.3922052681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1350357.9979667328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D5E9-4D20-8E95-0C988724602E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468458447"/>
+        <c:axId val="468458863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468458447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468458863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP_c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9110083.7826025654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8613096.8843375817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7521254.0921894507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9735885.3596666753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9609945.8187150434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8727983.6175170355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B05-421E-A1EA-E03E69A09F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPC_c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7922912.2833262263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7617411.2172281453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7630716.1212793179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8338946.3984648194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8924873.9037953094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8436174.5434541591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B05-421E-A1EA-E03E69A09F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$2:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1187171.4992763391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-995685.66710943636</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>109462.02908986714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1396938.9612018559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-685071.914919734</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>-291809.0740628764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4B05-421E-A1EA-E03E69A09F2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468458447"/>
+        <c:axId val="468458863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468458447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468458863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468458447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E14A872-BB6F-E5FF-A5B4-829CC7DCA5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7070644C-8C42-4BA4-BCBA-809C7F4F4401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A2ADD9-B577-4D29-B78C-04395354D5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,15 +3995,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +4034,44 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -467,8 +4105,47 @@
         <f t="shared" si="0"/>
         <v>-1187171.4992763391</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9335634.8936170228</v>
+      </c>
+      <c r="P2">
+        <v>7517112.7097654594</v>
+      </c>
+      <c r="Q2">
+        <f>P2-O2</f>
+        <v>-1818522.1838515634</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>8827805.2133005392</v>
+      </c>
+      <c r="V2" s="2">
+        <v>7944916.547718551</v>
+      </c>
+      <c r="W2">
+        <f>V2-U2</f>
+        <v>-882888.66558198817</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>9110083.7826025654</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>7922912.2833262263</v>
+      </c>
+      <c r="AC2">
+        <f>AB2-AA2</f>
+        <v>-1187171.4992763391</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -502,8 +4179,47 @@
         <f t="shared" si="0"/>
         <v>-995685.66710943636</v>
       </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>8995398.6419652104</v>
+      </c>
+      <c r="P3">
+        <v>7891185.2044349685</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="2">P3-O3</f>
+        <v>-1104213.4375302419</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>8917160.0863690022</v>
+      </c>
+      <c r="V3" s="2">
+        <v>7504831.2598720687</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" si="3">V3-U3</f>
+        <v>-1412328.8264969336</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>8613096.8843375817</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>7617411.2172281453</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC6" si="4">AB3-AA3</f>
+        <v>-995685.66710943636</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -537,8 +4253,47 @@
         <f>G4-D4</f>
         <v>109462.02908986714</v>
       </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>8435165.4803435896</v>
+      </c>
+      <c r="P4">
+        <v>7663466.6543283593</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>-771698.82601523027</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4" s="2">
+        <v>8315424.8968332177</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9201718.2534754798</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>886293.35664226208</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>7521254.0921894507</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>7630716.1212793179</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>AB4-AA4</f>
+        <v>109462.02908986714</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -572,8 +4327,47 @@
         <f t="shared" si="0"/>
         <v>-1396938.9612018559</v>
       </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>10085941.036339829</v>
+      </c>
+      <c r="P5">
+        <v>8082571.1319403006</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>-2003369.9043995282</v>
+      </c>
+      <c r="T5">
+        <v>17</v>
+      </c>
+      <c r="U5" s="2">
+        <v>9804652.1937093474</v>
+      </c>
+      <c r="V5" s="2">
+        <v>9008797.1447334755</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>-795855.04897587188</v>
+      </c>
+      <c r="Z5">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>9735885.3596666753</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>8338946.3984648194</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>-1396938.9612018559</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -607,8 +4401,47 @@
         <f t="shared" si="0"/>
         <v>-685071.914919734</v>
       </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>9399836.0317572597</v>
+      </c>
+      <c r="P6">
+        <v>8368626.5690405127</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>-1031209.4627167471</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10726467.90580868</v>
+      </c>
+      <c r="V6" s="2">
+        <v>8754980.5136034116</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>-1971487.3922052681</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>9609945.8187150434</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>8924873.9037953094</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>-685071.914919734</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -642,20 +4475,357 @@
         <f t="shared" si="0"/>
         <v>-291809.0740628764</v>
       </c>
+      <c r="N7">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>12616004.57423345</v>
+      </c>
+      <c r="P7">
+        <v>8421846.1852452029</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>-4194158.3889882471</v>
+      </c>
+      <c r="T7">
+        <v>24</v>
+      </c>
+      <c r="U7" s="2">
+        <v>9845381.1554933861</v>
+      </c>
+      <c r="V7" s="2">
+        <v>8495023.1575266533</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>-1350357.9979667328</v>
+      </c>
+      <c r="Z7">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>8727983.6175170355</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>8436174.5434541591</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>AB7-AA7</f>
+        <v>-291809.0740628764</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f>SLOPE(B2:B7,$A$2:$A$7)</f>
+        <v>107525.49154626629</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SLOPE(C2:C7,$A$2:$A$7)</f>
+        <v>72387.613203070418</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:J8" si="5">SLOPE(D2:D7,$A$2:$A$7)</f>
+        <v>32637.455486206512</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="5"/>
+        <v>34862.444534086339</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SLOPE(F2:F7,$A$2:$A$7)</f>
+        <v>32232.582262433003</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>42977.467872990288</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="5"/>
+        <v>-72663.047012179974</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>-40155.030940637414</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>10340.012386783786</v>
+      </c>
+      <c r="O8">
+        <v>107525.49154626629</v>
+      </c>
+      <c r="P8">
+        <v>34862.444534086339</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>SLOPE(Q2:Q7,N2:N7)</f>
+        <v>-72663.047012179974</v>
+      </c>
+      <c r="U8" s="2">
+        <v>72387.613203070418</v>
+      </c>
+      <c r="V8" s="2">
+        <v>32232.582262433003</v>
+      </c>
+      <c r="W8" s="1">
+        <f>SLOPE(W2:W7,T2:T7)</f>
+        <v>-40155.030940637414</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>32637.455486206512</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>42977.467872990288</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>SLOPE(AC2:AC7,Z2:Z7)</f>
+        <v>10340.012386783786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <f>P8-O8</f>
+        <v>-72663.047012179944</v>
+      </c>
+      <c r="U9" s="3">
+        <f>V8-U8</f>
+        <v>-40155.030940637414</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>AB8-AA8</f>
+        <v>10340.012386783776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="2">
+        <f>AVERAGE(O8,U8,AA8)</f>
+        <v>70850.186745181083</v>
+      </c>
+      <c r="P27" s="4">
+        <f>AVERAGE(P8,V8,AB8)</f>
+        <v>36690.831556503217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>9091174.6298400406</v>
+      </c>
+      <c r="M30">
+        <v>7794980.5136034125</v>
+      </c>
+      <c r="N30">
+        <f>M30-L30</f>
+        <v>-1296194.116236628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>9091174.6298400406</v>
+      </c>
+      <c r="E31" s="2">
+        <f>AVERAGE(E2:G2)</f>
+        <v>7794980.5136034125</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>8841885.2042239308</v>
+      </c>
+      <c r="M31">
+        <v>7671142.5605117269</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N35" si="6">M31-L31</f>
+        <v>-1170742.6437122039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ref="B32:B36" si="7">AVERAGE(B3:D3)</f>
+        <v>8841885.2042239308</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:E36" si="8">AVERAGE(E3:G3)</f>
+        <v>7671142.5605117269</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>8090614.8231220851</v>
+      </c>
+      <c r="M32">
+        <v>8165300.3430277193</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>74685.519905634224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="7"/>
+        <v>8090614.8231220851</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="8"/>
+        <v>8165300.3430277193</v>
+      </c>
+      <c r="K33">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>9875492.8632386178</v>
+      </c>
+      <c r="M33">
+        <v>8476771.5583795309</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>-1398721.3048590869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="7"/>
+        <v>9875492.8632386178</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="8"/>
+        <v>8476771.5583795309</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>9912083.2520936597</v>
+      </c>
+      <c r="M34">
+        <v>8682826.9954797458</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>-1229256.2566139139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="7"/>
+        <v>9912083.2520936597</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="8"/>
+        <v>8682826.9954797458</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+      <c r="L35">
+        <v>10396456.449081291</v>
+      </c>
+      <c r="M35">
+        <v>8451014.6287420057</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>-1945441.8203392848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="7"/>
+        <v>10396456.449081291</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="8"/>
+        <v>8451014.6287420057</v>
+      </c>
+      <c r="L36">
+        <v>70850.186745181098</v>
+      </c>
+      <c r="M36">
+        <v>36690.831556503239</v>
+      </c>
+      <c r="N36" s="3">
+        <f>SLOPE(N30:N35,$A$2:$A$7)</f>
+        <v>-34159.355188677895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f>SLOPE(B31:B36,$A$2:$A$7)</f>
+        <v>70850.186745181127</v>
+      </c>
+      <c r="E37" s="2">
+        <f>SLOPE(E31:E36,$A$2:$A$7)</f>
+        <v>36690.831556503239</v>
+      </c>
+      <c r="L37" s="1">
+        <f>M36-L36</f>
+        <v>-34159.355188677859</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/viralproduction_R.xlsx
+++ b/viralproduction_R.xlsx
@@ -10,13 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC104892391D4E525BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1580055-76D0-477F-8D9D-F94E76DDD8EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3997,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
